--- a/fuentes/contenidos/grado11/guion15/SolicitudGrafica_CN_11_15.xlsx
+++ b/fuentes/contenidos/grado11/guion15/SolicitudGrafica_CN_11_15.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\Edición Planeta\CN_11_15_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado11\guion15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -804,12 +804,6 @@
     <t>Código Shutterstock: 117136321</t>
   </si>
   <si>
-    <t>Código Shutterstock:  224411431</t>
-  </si>
-  <si>
-    <t>Código Shutterstock:  225172510</t>
-  </si>
-  <si>
     <t>Cambiar: N-terminus por “N-terminal”; C-terminus por “C-terminal”; helical structure por “Estructura helicoidal”; beta-sheet structure por “Estructura beta plegada”; H bridge por “Puente de hidrógeno”; disulfide bridge por “Puente disulfuro”; hydrophobic interaction por “Interacción hidrofóbica”</t>
   </si>
   <si>
@@ -826,6 +820,12 @@
   </si>
   <si>
     <t>Realizar ilustración como se deja en imagen guía en Drive https://drive.google.com/file/d/0B8KYPZlXH19OSTdGenpLVUllbjQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Código Shutterstock:   340098308</t>
+  </si>
+  <si>
+    <t>Código Shutterstock:   339080102</t>
   </si>
 </sst>
 </file>
@@ -1783,6 +1783,22 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1880,22 +1896,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -3833,100 +3833,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>961486</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>107830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2961113</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>1420663</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Imagen 53" descr="http://thumb7.shutterstock.com/display_pic_with_logo/2016437/224411431/stock-vector-beta-sheet-structure-of-protein-secundary-224411431.jpg"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14664906" y="66692972"/>
-          <a:ext cx="1999627" cy="1312833"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>458278</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>62901</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2535627</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Imagen 54" descr="http://thumb1.shutterstock.com/display_pic_with_logo/2016437/225172510/stock-vector-protein-structure-with-interactions-225172510.jpg"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14161698" y="68490142"/>
-          <a:ext cx="2077349" cy="1365849"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>745826</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>17972</xdr:rowOff>
@@ -3943,7 +3849,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3990,7 +3896,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4014,6 +3920,116 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1006417</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>134786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3142885</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1321713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 2" descr="http://thumb1.shutterstock.com/display_pic_with_logo/2016437/340098308/stock-vector-protein-structure-as-beta-sheet-340098308.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14709837" y="66719928"/>
+          <a:ext cx="2136468" cy="1186927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1635425</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>143774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2832629</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1477153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 4" descr="http://thumb9.shutterstock.com/display_pic_with_logo/2016437/339080102/stock-photo-illustrated-structure-of-a-protein-molecule-339080102.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15338845" y="68571015"/>
+          <a:ext cx="1197204" cy="1333379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4736,9 +4752,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4785,14 +4801,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="F2" s="79" t="s">
+      <c r="D2" s="91"/>
+      <c r="F2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="80"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -4816,12 +4832,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="92">
         <v>11</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
+      <c r="D3" s="93"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -4845,10 +4861,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -4877,10 +4893,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="91"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -4962,12 +4978,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -6273,7 +6289,7 @@
       </c>
       <c r="J40" s="63"/>
       <c r="K40" s="65" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="11" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6311,7 +6327,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J41" s="63"/>
-      <c r="K41" s="110" t="s">
+      <c r="K41" s="79" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6349,8 +6365,8 @@
         <f ca="1">IF(OR($B42&lt;&gt;"",$J42&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J42" s="112"/>
-      <c r="K42" s="113" t="s">
+      <c r="J42" s="81"/>
+      <c r="K42" s="82" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6389,7 +6405,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J43" s="63"/>
-      <c r="K43" s="113" t="s">
+      <c r="K43" s="82" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6539,8 +6555,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J47" s="63"/>
-      <c r="K47" s="113" t="s">
-        <v>255</v>
+      <c r="K47" s="82" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="11" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6548,7 +6564,7 @@
         <f t="shared" si="6"/>
         <v>IMG39</v>
       </c>
-      <c r="B48" s="111" t="s">
+      <c r="B48" s="80" t="s">
         <v>248</v>
       </c>
       <c r="C48" s="20" t="str">
@@ -6586,7 +6602,7 @@
         <v>IMG40</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C49" s="20" t="str">
         <f t="shared" si="7"/>
@@ -6623,7 +6639,7 @@
         <v>IMG41</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C50" s="20" t="str">
         <f t="shared" si="7"/>
@@ -6652,8 +6668,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J50" s="63"/>
-      <c r="K50" s="113" t="s">
-        <v>251</v>
+      <c r="K50" s="82" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="11" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6662,7 +6678,7 @@
         <v>IMG42</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C51" s="20" t="str">
         <f t="shared" si="7"/>
@@ -6691,8 +6707,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J51" s="63"/>
-      <c r="K51" s="113" t="s">
-        <v>253</v>
+      <c r="K51" s="82" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="11" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6701,7 +6717,7 @@
         <v>IMG43</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C52" s="20" t="str">
         <f t="shared" si="7"/>
@@ -8535,25 +8551,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -8561,11 +8577,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -8616,11 +8632,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="106" t="str">
+      <c r="D5" s="110" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="107"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -8665,12 +8681,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="96" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -8764,14 +8780,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -8804,12 +8820,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -8849,12 +8865,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="100" t="str">
+      <c r="D17" s="104" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="106"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -8870,12 +8886,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="92" t="str">
+      <c r="D18" s="96" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -9266,40 +9282,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="108"/>
+      <c r="I1" s="112"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
